--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCDE/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCDE/20/seed5/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
         <v>-10.94</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.119800000000001</v>
+        <v>-7.491600000000002</v>
       </c>
       <c r="E2" t="n">
         <v>17.25</v>
@@ -485,10 +485,10 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-10.77479999999999</v>
+        <v>-10.45179999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.776699999999994</v>
+        <v>-6.60459999999999</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -502,7 +502,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.48089999999999</v>
+        <v>-12.31199999999999</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -576,7 +576,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>16.6888</v>
+        <v>16.6802</v>
       </c>
     </row>
     <row r="9">
@@ -590,7 +590,7 @@
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.169499999999997</v>
+        <v>-7.207999999999999</v>
       </c>
       <c r="E9" t="n">
         <v>17.64</v>
@@ -618,7 +618,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>5.695699999999997</v>
+        <v>5.936599999999998</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -627,7 +627,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>16.12349999999999</v>
+        <v>16.29409999999999</v>
       </c>
     </row>
     <row r="12">
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.067299999999996</v>
+        <v>4.793199999999996</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -672,13 +672,13 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.96229999999999</v>
+        <v>-13.91039999999999</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.9931</v>
+        <v>16.8902</v>
       </c>
     </row>
     <row r="15">
@@ -686,16 +686,16 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>5.250599999999997</v>
+        <v>4.918099999999998</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.551399999999997</v>
+        <v>-8.758299999999993</v>
       </c>
       <c r="E15" t="n">
-        <v>16.5744</v>
+        <v>16.5498</v>
       </c>
     </row>
     <row r="16">
@@ -729,7 +729,7 @@
         <v>-7.82</v>
       </c>
       <c r="E17" t="n">
-        <v>16.86780000000001</v>
+        <v>16.83100000000001</v>
       </c>
     </row>
     <row r="18">
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.734799999999999</v>
+        <v>-8.104999999999997</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.605300000000002</v>
+        <v>-7.858900000000001</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -862,7 +862,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.753800000000008</v>
+        <v>-7.775200000000009</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -876,13 +876,13 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-11.86809999999999</v>
+        <v>-12.0892</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>15.51369999999999</v>
+        <v>15.4825</v>
       </c>
     </row>
     <row r="27">
@@ -890,13 +890,13 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.237800000000004</v>
+        <v>6.3607</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-9.059599999999996</v>
+        <v>-9.086099999999998</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -907,13 +907,13 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>6.429400000000002</v>
+        <v>6.403000000000002</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-7.822500000000004</v>
+        <v>-8.026800000000001</v>
       </c>
       <c r="E28" t="n">
         <v>16.42</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.376899999999995</v>
+        <v>-7.230000000000005</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -958,10 +958,10 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>4.271899999999997</v>
+        <v>3.998199999999998</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.65209999999999</v>
+        <v>-13.57149999999999</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -975,13 +975,13 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.516900000000001</v>
+        <v>6.535199999999999</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-8.600199999999999</v>
+        <v>-8.531500000000001</v>
       </c>
       <c r="E32" t="n">
         <v>15.18</v>
@@ -1029,7 +1029,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.9783</v>
+        <v>-12.3351</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1043,7 +1043,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>8.927400000000002</v>
+        <v>9.268699999999997</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>16.19819999999999</v>
+        <v>16.3112</v>
       </c>
     </row>
     <row r="37">
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.62239999999999</v>
+        <v>-13.30479999999999</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1077,7 +1077,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>5.616099999999997</v>
+        <v>5.5542</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.5496</v>
+        <v>-12.2309</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-13.9215</v>
+        <v>-13.9242</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.46339999999999</v>
+        <v>16.48349999999999</v>
       </c>
     </row>
     <row r="43">
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.045400000000002</v>
+        <v>-7.275100000000006</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.345</v>
+        <v>-13.7461</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1213,7 +1213,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>7.530800000000005</v>
+        <v>7.500100000000003</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1236,7 +1236,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.381700000000006</v>
+        <v>-7.432</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-10.92589999999999</v>
+        <v>-10.9223</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1349,7 +1349,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.8172</v>
+        <v>5.003200000000003</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.156299999999998</v>
+        <v>5.073399999999997</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>4.676100000000004</v>
+        <v>4.735000000000002</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.50569999999999</v>
+        <v>-14.40779999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.050100000000004</v>
+        <v>-7.791899999999998</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1491,7 +1491,7 @@
         <v>-14.53</v>
       </c>
       <c r="D62" t="n">
-        <v>-8.554399999999992</v>
+        <v>-8.488699999999993</v>
       </c>
       <c r="E62" t="n">
         <v>16.65</v>
@@ -1528,7 +1528,7 @@
         <v>-6.84</v>
       </c>
       <c r="E64" t="n">
-        <v>17.5647</v>
+        <v>17.4539</v>
       </c>
     </row>
     <row r="65">
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>4.856299999999993</v>
+        <v>4.929099999999994</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1596,7 +1596,7 @@
         <v>-7.27</v>
       </c>
       <c r="E68" t="n">
-        <v>16.64490000000001</v>
+        <v>16.76360000000001</v>
       </c>
     </row>
     <row r="69">
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.321299999999992</v>
+        <v>5.699199999999993</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1655,7 +1655,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.7642</v>
+        <v>5.698900000000001</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.712899999999998</v>
+        <v>8.334899999999996</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1746,7 +1746,7 @@
         <v>-9.57</v>
       </c>
       <c r="D77" t="n">
-        <v>-5.4373</v>
+        <v>-5.652299999999999</v>
       </c>
       <c r="E77" t="n">
         <v>17.96</v>
@@ -1763,7 +1763,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-7.467200000000002</v>
+        <v>-7.760600000000003</v>
       </c>
       <c r="E78" t="n">
         <v>17.28</v>
@@ -1783,7 +1783,7 @@
         <v>-4.8</v>
       </c>
       <c r="E79" t="n">
-        <v>18.16230000000003</v>
+        <v>18.28680000000002</v>
       </c>
     </row>
     <row r="80">
@@ -1811,7 +1811,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.66229999999999</v>
+        <v>-13.5194</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1842,10 +1842,10 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.129799999999998</v>
+        <v>5.520299999999997</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.6766</v>
+        <v>-13.83599999999999</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.620100000000006</v>
+        <v>-8.7235</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1893,7 +1893,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>4.517400000000002</v>
+        <v>4.882800000000004</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1950,10 +1950,10 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-6.200299999999999</v>
+        <v>-6.115899999999999</v>
       </c>
       <c r="E89" t="n">
-        <v>18.74240000000002</v>
+        <v>19.10900000000003</v>
       </c>
     </row>
     <row r="90">
@@ -1978,13 +1978,13 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>5.202600000000002</v>
+        <v>5.0771</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
       </c>
       <c r="D91" t="n">
-        <v>-6.2274</v>
+        <v>-6.123699999999999</v>
       </c>
       <c r="E91" t="n">
         <v>19.72</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.1145</v>
+        <v>-6.041099999999999</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>6.789499999999999</v>
+        <v>6.872600000000003</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.533800000000002</v>
+        <v>-7.801600000000013</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2114,7 +2114,7 @@
         <v>-21.4</v>
       </c>
       <c r="B99" t="n">
-        <v>4.618599999999995</v>
+        <v>4.658799999999997</v>
       </c>
       <c r="C99" t="n">
         <v>-15.77</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.7834</v>
+        <v>-12.8842</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,10 +2168,10 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.1083</v>
+        <v>-13.2561</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.950000000000001</v>
+        <v>-7.556999999999996</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
